--- a/data/CS1_3/case18_3/case18_3_2050.xlsx
+++ b/data/CS1_3/case18_3/case18_3_2050.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F2C71-D45B-4D17-8025-FCFBDA40264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DAC8DC-B915-4B7A-BE4D-D6F65051E07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14736,16 +14736,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14811,9 +14811,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>0.94067326924901662</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>1.0629999002567971</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>2.0617080327829198</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>2.3857620123830716</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>1.4866363704646339</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>0.93589358968088865</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>1.577151633149839</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>1.082577293927182</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>2.0728822486662395</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>0.99269570108040184</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>0.8957217160894122</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>1.7398285784101528</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>1.2081885857011065</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>1.5835538215577154</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -16418,9 +16418,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>0.97869380561964925</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>1.0882850266497794</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>2.152781530731203</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>2.1263357682904336</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>1.3800683343947668</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>0.95207441807645921</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>1.5579105784773288</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1.0914139021305274</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>2.0728822486662395</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>0.96672980298063471</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>0.87606693828516824</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>1.7176109023465256</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>1.2932368370673637</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>1.4216596743075376</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -18025,9 +18025,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>4.8506459151541607E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>-0.26297211365203838</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>-0.98326329195919093</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>-2.7072814439706723</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>-0.46168337129919479</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>6.0581266569224398E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>-0.70613986328553668</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>-0.39800725881694821</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>-0.83566632750640191</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>-0.23630123763945457</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>-0.12425647644314798</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>0.42056193757018073</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>6.5991175574464808E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>0.79318513551198278</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -19632,9 +19632,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>7.9073916650406639E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>-0.25676251424406082</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>-1.140490568939434</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>-2.7227592130926519</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>-0.45426293803738976</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>7.6603882517131947E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>-0.67118184127768377</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>-0.40243039275677089</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>-0.83566632750640191</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>-0.21926096666460118</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>-0.12340599684067455</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.23378994113269363</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>2.9103769200848159E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>0.76071082134017787</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -21239,9 +21239,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.13272898981869294</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>-0.24550150908280494</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>-1.1739275302419039</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>-2.5687675963923269</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>-0.50650133071551084</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>0.10889266886573014</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>-0.83566632750640191</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>-0.40247416993681834</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>-0.83566632750640191</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>-0.2395465808132978</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>-0.13119555471458644</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v>0.38727525115683825</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>-2.1747131852420984E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0.83566632750640191</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -22846,9 +22846,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -24036,7 +24036,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -24453,9 +24453,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -25340,7 +25340,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -26060,9 +26060,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -26442,7 +26442,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -26644,7 +26644,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -27351,7 +27351,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -27452,7 +27452,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>48.552700642442538</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -27667,9 +27667,9 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -28341,9 +28341,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -28598,7 +28598,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28800,7 +28800,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28901,7 +28901,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29013,12 +29013,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -29185,9 +29185,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29264,7 +29264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -29442,7 +29442,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -29644,7 +29644,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29859,9 +29859,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30015,7 +30015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30092,7 +30092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30169,7 +30169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30323,7 +30323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30413,9 +30413,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30569,7 +30569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30723,7 +30723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30800,7 +30800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30877,7 +30877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30967,9 +30967,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31200,7 +31200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31277,7 +31277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -31521,9 +31521,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31754,7 +31754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31831,7 +31831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -32075,9 +32075,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -32154,7 +32154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -32255,7 +32255,7 @@
         <v>0.92807603158714647</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>1.117106838925348</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -32457,7 +32457,7 @@
         <v>1.9424166535753922</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32558,7 +32558,7 @@
         <v>2.7845790173299925</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32659,7 +32659,7 @@
         <v>1.5802452031795302</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32760,7 +32760,7 @@
         <v>0.91968988530671125</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32861,7 +32861,7 @@
         <v>1.5611894104481572</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>1.0272152983806426</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -33063,7 +33063,7 @@
         <v>1.8351802418061589</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>1.0114122223236084</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -33265,7 +33265,7 @@
         <v>0.91150044758954274</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -33366,7 +33366,7 @@
         <v>1.7957321560901134</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>1.2614898396993035</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>1.5699879264236773</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -33682,9 +33682,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -33761,7 +33761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -33862,7 +33862,7 @@
         <v>0.94267482313918538</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -33963,7 +33963,7 @@
         <v>1.1287934431641067</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -34064,7 +34064,7 @@
         <v>2.1794465126086191</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -34165,7 +34165,7 @@
         <v>3.0386853425340234</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -34266,7 +34266,7 @@
         <v>1.5722744937029129</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -34367,7 +34367,7 @@
         <v>0.94644238359899235</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -34468,7 +34468,7 @@
         <v>1.5920050310629787</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -34569,7 +34569,7 @@
         <v>1.0824459586667872</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>1.8723796479754764</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>1.031907736281507</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -34872,7 +34872,7 @@
         <v>0.92466770487070327</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>1.611639341800833</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35074,7 +35074,7 @@
         <v>1.2676168514020716</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -35175,7 +35175,7 @@
         <v>1.6408291525270311</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -35289,9 +35289,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35469,7 +35469,7 @@
         <v>0.95857119517394296</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35570,7 +35570,7 @@
         <v>1.1112587626082031</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35671,7 +35671,7 @@
         <v>2.273476777514444</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35772,7 +35772,7 @@
         <v>2.5745892813877962</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>1.5067270916036226</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35974,7 +35974,7 @@
         <v>0.9475610804353396</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36075,7 +36075,7 @@
         <v>1.7386423093743637</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>1.187570200513921</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -36277,7 +36277,7 @@
         <v>1.8615743589803009</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>0.99720255297003524</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -36479,7 +36479,7 @@
         <v>0.89320145638426562</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -36580,7 +36580,7 @@
         <v>1.5229152885527766</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>1.3447687695903863</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -36782,7 +36782,7 @@
         <v>1.54104007291585</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -36896,9 +36896,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>7.0366111585360186E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37177,7 +37177,7 @@
         <v>1.3558348255010733E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>-0.69412706117011125</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -37379,7 +37379,7 @@
         <v>-2.4436288088209936</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>-9.8130714657343909E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -37581,7 +37581,7 @@
         <v>7.7315600798834427E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -37682,7 +37682,7 @@
         <v>-0.53258503768866639</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v>-0.40569242542687167</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -37884,7 +37884,7 @@
         <v>-8.7894105302665462E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -37985,7 +37985,7 @@
         <v>-0.15770460141761197</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -38086,7 +38086,7 @@
         <v>-0.10792603639778016</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -38187,7 +38187,7 @@
         <v>0.66910304147328259</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -38288,7 +38288,7 @@
         <v>8.6621269827385314E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -38389,7 +38389,7 @@
         <v>0.68902893844975943</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -38503,9 +38503,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38582,7 +38582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -38683,7 +38683,7 @@
         <v>7.842549018035283E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>-0.12924293466075285</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38885,7 +38885,7 @@
         <v>-1.200857129627416</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38986,7 +38986,7 @@
         <v>-2.5706184300023627</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -39087,7 +39087,7 @@
         <v>-0.28835291533456464</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -39188,7 +39188,7 @@
         <v>0.11053386498109362</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>-0.70334001211103037</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -39390,7 +39390,7 @@
         <v>-0.41564943463280862</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -39491,7 +39491,7 @@
         <v>-4.6527017639361103E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -39592,7 +39592,7 @@
         <v>-0.20448796657310378</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -39693,7 +39693,7 @@
         <v>-0.11531793436256402</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>0.22680441787295316</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -39895,7 +39895,7 @@
         <v>5.7092807883272194E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -39996,7 +39996,7 @@
         <v>0.83566632750640191</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -40110,9 +40110,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -40120,7 +40120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>8</v>
       </c>
@@ -40129,7 +40129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>9</v>
       </c>
@@ -40138,7 +40138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>22</v>
       </c>
@@ -40147,7 +40147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -40156,7 +40156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>26</v>
       </c>
@@ -40178,9 +40178,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -40257,7 +40257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -40358,7 +40358,7 @@
         <v>7.7210151776417255E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -40459,7 +40459,7 @@
         <v>-0.21366867162070999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>-1.1292316246090401</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -40661,7 +40661,7 @@
         <v>-2.386500919271342</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -40762,7 +40762,7 @@
         <v>-0.24196002186967031</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>0.1078900575714993</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v>-0.60633615262001317</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -41065,7 +41065,7 @@
         <v>-0.39506145310274243</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -41166,7 +41166,7 @@
         <v>-0.18773372943879424</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -41267,7 +41267,7 @@
         <v>-0.19963716405477136</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -41368,7 +41368,7 @@
         <v>-0.10460717755934876</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -41469,7 +41469,7 @@
         <v>9.6849698001617163E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -41570,7 +41570,7 @@
         <v>9.5036956451049773E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -41671,7 +41671,7 @@
         <v>0.69954246590321789</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -41785,9 +41785,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -41864,7 +41864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -41965,7 +41965,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -42066,7 +42066,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -42167,7 +42167,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -42268,7 +42268,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -42369,7 +42369,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42470,7 +42470,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42571,7 +42571,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42672,7 +42672,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -42874,7 +42874,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -42975,7 +42975,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -43076,7 +43076,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -43177,7 +43177,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -43278,7 +43278,7 @@
         <v>0.64025999999999983</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -43392,9 +43392,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -43471,7 +43471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -43572,7 +43572,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -43673,7 +43673,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -43774,7 +43774,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -43875,7 +43875,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -43976,7 +43976,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -44077,7 +44077,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -44178,7 +44178,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -44279,7 +44279,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -44380,7 +44380,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -44481,7 +44481,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -44582,7 +44582,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -44784,7 +44784,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -44885,7 +44885,7 @@
         <v>2.1440606666666668</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -44999,9 +44999,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -45078,7 +45078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -45179,7 +45179,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -45280,7 +45280,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45381,7 +45381,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -45482,7 +45482,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -45583,7 +45583,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -45684,7 +45684,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -45785,7 +45785,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -45886,7 +45886,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -45987,7 +45987,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -46088,7 +46088,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -46189,7 +46189,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -46290,7 +46290,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -46391,7 +46391,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -46492,7 +46492,7 @@
         <v>40.194064088901158</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -46606,9 +46606,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -46685,7 +46685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -46762,7 +46762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -46863,7 +46863,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -46964,7 +46964,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47065,7 +47065,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47166,7 +47166,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47280,9 +47280,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47359,7 +47359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -47436,7 +47436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -47537,7 +47537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -47638,7 +47638,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47739,7 +47739,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47840,7 +47840,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47954,9 +47954,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48033,7 +48033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48110,7 +48110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48211,7 +48211,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48312,7 +48312,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -48413,7 +48413,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -48514,7 +48514,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -48628,9 +48628,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48784,7 +48784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48861,7 +48861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48938,7 +48938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49015,7 +49015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49092,7 +49092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49182,9 +49182,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49261,7 +49261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49338,7 +49338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49415,7 +49415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -49492,7 +49492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49569,7 +49569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49646,7 +49646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49736,9 +49736,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49815,7 +49815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49892,7 +49892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49969,7 +49969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -50046,7 +50046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -50123,7 +50123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -50200,7 +50200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -50290,9 +50290,9 @@
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -50357,7 +50357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -50423,7 +50423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9</v>
       </c>
@@ -50489,7 +50489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -50555,7 +50555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -50621,7 +50621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26</v>
       </c>
@@ -50700,9 +50700,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50779,7 +50779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -50933,7 +50933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -51010,7 +51010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -51087,7 +51087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -51164,7 +51164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -51254,9 +51254,9 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51264,7 +51264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -51273,7 +51273,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>8</v>
       </c>
@@ -51282,7 +51282,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>21</v>
       </c>
@@ -51291,7 +51291,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>23</v>
       </c>
@@ -51313,9 +51313,9 @@
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -51341,7 +51341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51370,7 +51370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -51428,7 +51428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -51471,9 +51471,9 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -51481,7 +51481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51490,7 +51490,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -51499,7 +51499,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -51508,7 +51508,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -51517,7 +51517,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -51526,7 +51526,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -51535,7 +51535,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -51544,7 +51544,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -51553,7 +51553,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -51562,7 +51562,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -51571,7 +51571,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -51580,7 +51580,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -51589,7 +51589,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -51598,7 +51598,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -51607,7 +51607,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -51629,12 +51629,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -51711,7 +51711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -51788,7 +51788,7 @@
         <v>10.875500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -51865,7 +51865,7 @@
         <v>-21.285409999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -51942,122 +51942,122 @@
         <v>20.479399999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -52071,13 +52071,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9826D321-9967-45A7-9995-7352E2ADFAE8}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -52154,7 +52154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -52255,7 +52255,7 @@
         <v>0.92405909279174403</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -52356,7 +52356,7 @@
         <v>1.0722046145114894</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -52457,7 +52457,7 @@
         <v>1.8155953724902212</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -52558,7 +52558,7 @@
         <v>2.2654225010788052</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -52659,7 +52659,7 @@
         <v>1.5015689226393905</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -52760,7 +52760,7 @@
         <v>0.91326680595911025</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -52861,7 +52861,7 @@
         <v>1.5017601892819241</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -52962,7 +52962,7 @@
         <v>1.0468533639012367</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -53063,7 +53063,7 @@
         <v>2.0728822486662395</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -53164,7 +53164,7 @@
         <v>0.99033076596215242</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -53265,7 +53265,7 @@
         <v>0.89717987116069975</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -53366,7 +53366,7 @@
         <v>1.7454824608283912</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -53467,7 +53467,7 @@
         <v>1.2252378163243969</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -53568,7 +53568,7 @@
         <v>1.5840273289546072</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
